--- a/tests/fixtures/verification/cases/semantic/00018/00018-wc_lang.xlsx
+++ b/tests/fixtures/verification/cases/semantic/00018/00018-wc_lang.xlsx
@@ -2979,7 +2979,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observable' name='Observables' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observable' name='Observables' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3211,7 +3211,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Function' name='Functions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Function' name='Functions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="23" t="n"/>
@@ -3430,7 +3430,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reaction' name='Reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reaction' name='Reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3867,7 +3867,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='RateLaw' name='Rate laws' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='RateLaw' name='Rate laws' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4219,7 +4219,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjective' name='dFBA objectives' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjective' name='dFBA objectives' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4498,7 +4498,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjReaction' name='dFBA objective reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjReaction' name='dFBA objective reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4742,7 +4742,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjSpecies' name='dFBA objective species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjSpecies' name='dFBA objective species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5011,7 +5011,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Parameter' name='Parameters' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Parameter' name='Parameters' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5380,7 +5380,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='StopCondition' name='Stop conditions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='StopCondition' name='Stop conditions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5606,7 +5606,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observation' name='Observations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observation' name='Observations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6145,7 +6145,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Model' name='Models' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Model' name='Models' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6475,7 +6475,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='ObservationSet' name='Observation sets' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='ObservationSet' name='Observation sets' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6648,7 +6648,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Conclusion' name='Conclusions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Conclusion' name='Conclusions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6992,7 +6992,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reference' name='References' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reference' name='References' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7397,7 +7397,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Author' name='Authors' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Author' name='Authors' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7691,7 +7691,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Change' name='Changes' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Change' name='Changes' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -8070,7 +8070,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Taxon' name='Taxons' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Taxon' name='Taxons' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
@@ -8249,7 +8249,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Environment' name='Environments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Environment' name='Environments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
@@ -8436,7 +8436,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Submodel' name='Submodels' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Submodel' name='Submodels' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -8657,7 +8657,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Compartment' name='Compartments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Compartment' name='Compartments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -9167,7 +9167,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='SpeciesType' name='Species types' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='SpeciesType' name='Species types' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -9585,7 +9585,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Species' name='Species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Species' name='Species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -9890,7 +9890,7 @@
     <row r="1" ht="15" customHeight="1" s="46">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DistributionInitConcentration' name='Init species concentrations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DistributionInitConcentration' name='Init species concentrations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
